--- a/resultados/por_vector/V1.xlsx
+++ b/resultados/por_vector/V1.xlsx
@@ -943,13 +943,13 @@
         <v>92</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>11.92253070886076</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.003843497971908692</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -960,13 +960,13 @@
         <v>93</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>11.92253070886076</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00301378430456541</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -977,13 +977,13 @@
         <v>94</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>71.53518425316454</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.01067211461333202</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -994,13 +994,13 @@
         <v>95</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>11.92253070886076</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.002510534998707257</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1011,13 +1011,13 @@
         <v>96</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>11.92253070886076</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.003157449869931346</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1045,13 +1045,13 @@
         <v>98</v>
       </c>
       <c r="C8">
-        <v>38.32376764424763</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.001995613811927079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1079,13 +1079,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>203.0272082758245</v>
+        <v>569.3184782278481</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.009109669685279511</v>
+        <v>0.02554486822936457</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1096,13 +1096,13 @@
         <v>101</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>59.43628474683545</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.01955140945619587</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1113,13 +1113,13 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>43.73835523320939</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.005800842869125914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1130,13 +1130,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>503.0897769143104</v>
+        <v>380.9566025316456</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1816864488675733</v>
+        <v>0.1375791269525625</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1147,13 +1147,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>80.1068509968644</v>
+        <v>302.6488564556962</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.01042108117560354</v>
+        <v>0.03937151768644415</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1164,13 +1164,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>286.9871118219212</v>
+        <v>582.0699422848101</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03022507760104489</v>
+        <v>0.06130278486411902</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1181,13 +1181,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>66.56777594798301</v>
+        <v>75.238929</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.003466891096712828</v>
+        <v>0.003918490130722358</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1198,13 +1198,13 @@
         <v>107</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>8.359881000000001</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0006518934029943857</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1232,13 +1232,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>45.24639037186023</v>
+        <v>42.32851139240506</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.007432061493406739</v>
+        <v>0.006952777823982435</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1249,13 +1249,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>199.175954610803</v>
+        <v>52.15754890573505</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.008112082214426058</v>
+        <v>0.002124284156955771</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1266,13 +1266,13 @@
         <v>111</v>
       </c>
       <c r="C21">
-        <v>78.31078510711545</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.008988841265738687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1283,13 +1283,13 @@
         <v>112</v>
       </c>
       <c r="C22">
-        <v>119.7900170344815</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.008186292423596085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1300,13 +1300,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>48.07703218235745</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.01061068907136558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1317,13 +1317,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>278.6758837290731</v>
+        <v>64.67443803164558</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02123568419790239</v>
+        <v>0.004928327214177061</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1334,13 +1334,13 @@
         <v>115</v>
       </c>
       <c r="C25">
-        <v>70.81444175773991</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.008356672381135227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1351,13 +1351,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>111.3103243467066</v>
+        <v>29.14846672717635</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.009526730943744146</v>
+        <v>0.00249473354392129</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1368,13 +1368,13 @@
         <v>117</v>
       </c>
       <c r="C27">
-        <v>63.39627151655148</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.009038533150349512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1385,13 +1385,13 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>59.21042304981215</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.01097302132131433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1402,13 +1402,13 @@
         <v>119</v>
       </c>
       <c r="C29">
-        <v>600.3594457351961</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.1815969285345421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1419,13 +1419,13 @@
         <v>120</v>
       </c>
       <c r="C30">
-        <v>114.2323850846823</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.005014811233358898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1436,13 +1436,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>127.1108391365945</v>
+        <v>237.2160325949367</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.0240512467618911</v>
+        <v>0.04488477437936361</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,13 +1470,13 @@
         <v>123</v>
       </c>
       <c r="C33">
-        <v>38.57529127969134</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.00148178432296283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1487,13 +1487,13 @@
         <v>124</v>
       </c>
       <c r="C34">
-        <v>84.40270977429043</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.007698869814310903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1504,13 +1504,13 @@
         <v>125</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>192.9474644303798</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.004608471014387594</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1742,13 +1742,13 @@
         <v>139</v>
       </c>
       <c r="C49">
-        <v>42.10988059610748</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.02222157287393535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1827,13 +1827,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>97.77478871089734</v>
+        <v>183.7762869620253</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0.004119434957273955</v>
+        <v>0.00774283913890985</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1844,13 +1844,13 @@
         <v>145</v>
       </c>
       <c r="C55">
-        <v>43.10202642782625</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0.006139015300929532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1861,13 +1861,13 @@
         <v>146</v>
       </c>
       <c r="C56">
-        <v>52.1977642382979</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0.004380477025704758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1878,13 +1878,13 @@
         <v>147</v>
       </c>
       <c r="C57">
-        <v>45.30347938640083</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0.006863123676170403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1895,13 +1895,13 @@
         <v>148</v>
       </c>
       <c r="C58">
-        <v>28.22246215130647</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0.006209562629550378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1912,13 +1912,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>60.79060431978404</v>
+        <v>23.80978765822785</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0.004080180167782001</v>
+        <v>0.001598079579718629</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1929,13 +1929,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>107.0266783637856</v>
+        <v>214.2880889240506</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0.004758644718500092</v>
+        <v>0.009527726153752639</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1946,13 +1946,13 @@
         <v>151</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>16.22592936708861</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.001410337189664373</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2082,13 +2082,13 @@
         <v>159</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>6.525645506329113</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.0006724003612909957</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2116,13 +2116,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>72.15575314789459</v>
+        <v>157.6737049367089</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0.004942174873143465</v>
+        <v>0.01079956883128143</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2167,13 +2167,13 @@
         <v>164</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>113.4051367721519</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.004368625015299199</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2252,13 +2252,13 @@
         <v>169</v>
       </c>
       <c r="C79">
-        <v>125.2752887669386</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.005155361677651793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2269,13 +2269,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>99.85329065458704</v>
+        <v>93.65183145569618</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0.009791458193232697</v>
+        <v>0.009183352760903724</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2286,13 +2286,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>208.6132034585515</v>
+        <v>59.59501666455697</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0.02060784386629966</v>
+        <v>0.005887090453873058</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2303,13 +2303,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>88.97399314274949</v>
+        <v>268.1775749905063</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0.00931372271985235</v>
+        <v>0.02807260284627932</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2320,13 +2320,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>56.50796210823782</v>
+        <v>268.1775749905063</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0.01559270477600381</v>
+        <v>0.07400043460002935</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2337,13 +2337,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>78.93512108986255</v>
+        <v>256.792969113924</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0.005159158241167487</v>
+        <v>0.01678385419045255</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2354,13 +2354,13 @@
         <v>175</v>
       </c>
       <c r="C85">
-        <v>89.63772290318609</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.005316906275768794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2371,13 +2371,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>78.8171785322276</v>
+        <v>385.1894536708861</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0.01316471998199893</v>
+        <v>0.06433764049956339</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2388,13 +2388,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>69.47184301606877</v>
+        <v>126.4564277848101</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0.006972284525900118</v>
+        <v>0.01269133157214072</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2405,13 +2405,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>310.6305174339748</v>
+        <v>126.4564277848101</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0.08108340314120982</v>
+        <v>0.03300872560292616</v>
       </c>
     </row>
   </sheetData>
@@ -2452,13 +2452,13 @@
         <v>92</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>8.94189803164557</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.980632677215192</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.002882623478931519</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2469,13 +2469,13 @@
         <v>93</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>8.94189803164557</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.980632677215192</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.002260338228424057</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2486,13 +2486,13 @@
         <v>94</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>53.65138818987342</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>17.88379606329113</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.008004085959999017</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2503,13 +2503,13 @@
         <v>95</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>8.94189803164557</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.980632677215192</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.001882901249030442</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2520,13 +2520,13 @@
         <v>96</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>8.94189803164557</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.980632677215192</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.002368087402448509</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2554,13 +2554,13 @@
         <v>98</v>
       </c>
       <c r="C8">
-        <v>28.74282573318572</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>9.58094191106191</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.001496710358945309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2588,13 +2588,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>152.2704062068684</v>
+        <v>426.988858670886</v>
       </c>
       <c r="D10">
-        <v>50.75680206895612</v>
+        <v>142.3296195569621</v>
       </c>
       <c r="E10">
-        <v>0.006832252263959634</v>
+        <v>0.01915865117202342</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2605,13 +2605,13 @@
         <v>101</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>44.57721356012659</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>14.85907118670886</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0146635570921469</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2622,13 +2622,13 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>32.80376642490705</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>10.93458880830234</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.004350632151844436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2639,13 +2639,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>377.3173326857328</v>
+        <v>285.7174518987342</v>
       </c>
       <c r="D13">
-        <v>125.7724442285776</v>
+        <v>95.23915063291133</v>
       </c>
       <c r="E13">
-        <v>0.13626483665068</v>
+        <v>0.1031843452144219</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2656,13 +2656,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>60.08013824764829</v>
+        <v>226.9866423417721</v>
       </c>
       <c r="D14">
-        <v>20.0267127492161</v>
+        <v>75.66221411392408</v>
       </c>
       <c r="E14">
-        <v>0.007815810881702653</v>
+        <v>0.02952863826483311</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2673,13 +2673,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>215.2403338664409</v>
+        <v>436.5524567136076</v>
       </c>
       <c r="D15">
-        <v>71.7467779554803</v>
+        <v>145.5174855712025</v>
       </c>
       <c r="E15">
-        <v>0.02266880820078367</v>
+        <v>0.04597708864808926</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2690,13 +2690,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>49.92583196098726</v>
+        <v>56.42919675</v>
       </c>
       <c r="D16">
-        <v>16.64194398699575</v>
+        <v>18.80973225</v>
       </c>
       <c r="E16">
-        <v>0.002600168322534621</v>
+        <v>0.002938867598041769</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2707,13 +2707,13 @@
         <v>107</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>6.26991075</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2.089970250000001</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0004889200522457892</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2741,13 +2741,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>33.93479277889517</v>
+        <v>31.74638354430379</v>
       </c>
       <c r="D19">
-        <v>11.31159759296506</v>
+        <v>10.58212784810127</v>
       </c>
       <c r="E19">
-        <v>0.005574046120055054</v>
+        <v>0.005214583367986825</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2758,13 +2758,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>149.3819659581023</v>
+        <v>39.11816167930128</v>
       </c>
       <c r="D20">
-        <v>49.79398865270073</v>
+        <v>13.03938722643377</v>
       </c>
       <c r="E20">
-        <v>0.006084061660819545</v>
+        <v>0.001593213117716828</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2775,13 +2775,13 @@
         <v>111</v>
       </c>
       <c r="C21">
-        <v>58.73308883033659</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>19.57769627677886</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.006741630949304017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2792,13 +2792,13 @@
         <v>112</v>
       </c>
       <c r="C22">
-        <v>89.84251277586114</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>29.94750425862037</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.006139719317697064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2809,13 +2809,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>36.05777413676808</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>12.01925804558937</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.007958016803524185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2826,13 +2826,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>209.0069127968049</v>
+        <v>48.50582852373419</v>
       </c>
       <c r="D24">
-        <v>69.66897093226822</v>
+        <v>16.16860950791139</v>
       </c>
       <c r="E24">
-        <v>0.0159267631484268</v>
+        <v>0.003696245410632796</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2843,13 +2843,13 @@
         <v>115</v>
       </c>
       <c r="C25">
-        <v>53.11083131830495</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>17.70361043943497</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.006267504285851422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2860,13 +2860,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>83.48274326002993</v>
+        <v>21.86135004538226</v>
       </c>
       <c r="D26">
-        <v>27.82758108667666</v>
+        <v>7.287116681794085</v>
       </c>
       <c r="E26">
-        <v>0.007145048207808108</v>
+        <v>0.001871050157940967</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2877,13 +2877,13 @@
         <v>117</v>
       </c>
       <c r="C27">
-        <v>47.54720363741361</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>15.84906787913787</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0.006778899862762134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2894,13 +2894,13 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>44.40781728735912</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>14.80260576245303</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0.008229765990985752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2911,13 +2911,13 @@
         <v>119</v>
       </c>
       <c r="C29">
-        <v>450.2695843013971</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>150.0898614337991</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.1361976964009066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2928,13 +2928,13 @@
         <v>120</v>
       </c>
       <c r="C30">
-        <v>85.67428881351177</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>28.55809627117058</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.003761108425019174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2945,13 +2945,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>95.33312935244585</v>
+        <v>177.9120244462025</v>
       </c>
       <c r="D31">
-        <v>31.77770978414863</v>
+        <v>59.30400814873417</v>
       </c>
       <c r="E31">
-        <v>0.01803843507141832</v>
+        <v>0.03366358078452272</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2979,13 +2979,13 @@
         <v>123</v>
       </c>
       <c r="C33">
-        <v>28.93146845976851</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>9.643822819922828</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.001111338242222122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2996,13 +2996,13 @@
         <v>124</v>
       </c>
       <c r="C34">
-        <v>63.30203233071782</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>21.10067744357261</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.005774152360733177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3013,13 +3013,13 @@
         <v>125</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>144.7105983227848</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>48.23686610759492</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.003456353260790696</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3251,13 +3251,13 @@
         <v>139</v>
       </c>
       <c r="C49">
-        <v>31.58241044708061</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>10.52747014902687</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.01666617965545151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3336,13 +3336,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>73.33109153317299</v>
+        <v>137.832215221519</v>
       </c>
       <c r="D54">
-        <v>24.44369717772435</v>
+        <v>45.94407174050633</v>
       </c>
       <c r="E54">
-        <v>0.003089576217955466</v>
+        <v>0.005807129354182388</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3353,13 +3353,13 @@
         <v>145</v>
       </c>
       <c r="C55">
-        <v>32.32651982086968</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>10.77550660695656</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0.004604261475697149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3370,13 +3370,13 @@
         <v>146</v>
       </c>
       <c r="C56">
-        <v>39.14832317872342</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>13.04944105957448</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0.003285357769278568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3387,13 +3387,13 @@
         <v>147</v>
       </c>
       <c r="C57">
-        <v>33.97760953980063</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>11.3258698466002</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>0.005147342757127803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3404,13 +3404,13 @@
         <v>148</v>
       </c>
       <c r="C58">
-        <v>21.16684661347985</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>7.055615537826622</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0.004657171972162782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3421,13 +3421,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>45.59295323983802</v>
+        <v>17.85734074367089</v>
       </c>
       <c r="D59">
-        <v>15.19765107994601</v>
+        <v>5.952446914556958</v>
       </c>
       <c r="E59">
-        <v>0.003060135125836501</v>
+        <v>0.001198559684788972</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3438,13 +3438,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>80.27000877283916</v>
+        <v>160.716066693038</v>
       </c>
       <c r="D60">
-        <v>26.7566695909464</v>
+        <v>53.57202223101265</v>
       </c>
       <c r="E60">
-        <v>0.003568983538875068</v>
+        <v>0.00714579461531448</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3455,13 +3455,13 @@
         <v>151</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>12.16944702531645</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>4.056482341772153</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.00105775289224828</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3591,13 +3591,13 @@
         <v>159</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>4.894234129746835</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1.631411376582278</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.0005043002709682467</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3625,13 +3625,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>54.11681486092093</v>
+        <v>118.2552787025317</v>
       </c>
       <c r="D71">
-        <v>18.03893828697365</v>
+        <v>39.41842623417722</v>
       </c>
       <c r="E71">
-        <v>0.003706631154857598</v>
+        <v>0.008099676623461073</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3676,13 +3676,13 @@
         <v>164</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>85.05385257911391</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>28.35128419303798</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.003276468761474399</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3761,13 +3761,13 @@
         <v>169</v>
       </c>
       <c r="C79">
-        <v>93.95646657520395</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>31.31882219173463</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0.003866521258238846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3778,13 +3778,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>74.88996799094028</v>
+        <v>70.23887359177215</v>
       </c>
       <c r="D80">
-        <v>24.96332266364676</v>
+        <v>23.41295786392403</v>
       </c>
       <c r="E80">
-        <v>0.007343593644924522</v>
+        <v>0.006887514570677794</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3795,13 +3795,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>156.4599025939137</v>
+        <v>44.69626249841773</v>
       </c>
       <c r="D81">
-        <v>52.15330086463786</v>
+        <v>14.89875416613923</v>
       </c>
       <c r="E81">
-        <v>0.01545588289972475</v>
+        <v>0.004415317840404795</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3812,13 +3812,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>66.73049485706213</v>
+        <v>201.1331812428797</v>
       </c>
       <c r="D82">
-        <v>22.24349828568737</v>
+        <v>67.04439374762663</v>
       </c>
       <c r="E82">
-        <v>0.006985292039889263</v>
+        <v>0.02105445213470948</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3829,13 +3829,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>42.38097158117836</v>
+        <v>201.1331812428797</v>
       </c>
       <c r="D83">
-        <v>14.12699052705946</v>
+        <v>67.04439374762663</v>
       </c>
       <c r="E83">
-        <v>0.01169452858200286</v>
+        <v>0.05550032595002199</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3846,13 +3846,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>59.20134081739692</v>
+        <v>192.594726835443</v>
       </c>
       <c r="D84">
-        <v>19.73378027246563</v>
+        <v>64.19824227848099</v>
       </c>
       <c r="E84">
-        <v>0.003869368680875616</v>
+        <v>0.01258789064283941</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3863,13 +3863,13 @@
         <v>175</v>
       </c>
       <c r="C85">
-        <v>67.22829217738956</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>22.40943072579653</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>0.003987679706826595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3880,13 +3880,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>59.1128838991707</v>
+        <v>288.8920902531645</v>
       </c>
       <c r="D86">
-        <v>19.7042946330569</v>
+        <v>96.29736341772156</v>
       </c>
       <c r="E86">
-        <v>0.009873539986499199</v>
+        <v>0.04825323037467254</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3897,13 +3897,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>52.10388226205158</v>
+        <v>94.84232083860759</v>
       </c>
       <c r="D87">
-        <v>17.3679607540172</v>
+        <v>31.61410694620253</v>
       </c>
       <c r="E87">
-        <v>0.005229213394425088</v>
+        <v>0.009518498679105539</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3914,13 +3914,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>232.9728880754811</v>
+        <v>94.84232083860759</v>
       </c>
       <c r="D88">
-        <v>77.65762935849369</v>
+        <v>31.61410694620253</v>
       </c>
       <c r="E88">
-        <v>0.06081255235590737</v>
+        <v>0.02475654420219462</v>
       </c>
     </row>
   </sheetData>
@@ -3961,13 +3961,13 @@
         <v>92</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5.961265354430381</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.961265354430381</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.001921748985954346</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3978,13 +3978,13 @@
         <v>93</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>5.961265354430381</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5.961265354430381</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.001506892152282705</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3995,13 +3995,13 @@
         <v>94</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>35.76759212658227</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>35.76759212658227</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.005336057306666011</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4012,13 +4012,13 @@
         <v>95</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5.961265354430381</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5.961265354430381</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.001255267499353628</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4029,13 +4029,13 @@
         <v>96</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>5.961265354430381</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5.961265354430381</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.001578724934965673</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4063,13 +4063,13 @@
         <v>98</v>
       </c>
       <c r="C8">
-        <v>19.16188382212382</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>19.16188382212382</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0009978069059635396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4097,13 +4097,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>101.5136041379122</v>
+        <v>284.6592391139241</v>
       </c>
       <c r="D10">
-        <v>101.5136041379122</v>
+        <v>284.6592391139241</v>
       </c>
       <c r="E10">
-        <v>0.004554834842639756</v>
+        <v>0.01277243411468228</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4114,13 +4114,13 @@
         <v>101</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>29.71814237341772</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>29.71814237341772</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.009775704728097936</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4131,13 +4131,13 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>21.86917761660469</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>21.86917761660469</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.002900421434562957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4148,13 +4148,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>251.5448884571552</v>
+        <v>190.4783012658228</v>
       </c>
       <c r="D13">
-        <v>251.5448884571552</v>
+        <v>190.4783012658228</v>
       </c>
       <c r="E13">
-        <v>0.09084322443378665</v>
+        <v>0.06878956347628125</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4165,13 +4165,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>40.0534254984322</v>
+        <v>151.3244282278481</v>
       </c>
       <c r="D14">
-        <v>40.0534254984322</v>
+        <v>151.3244282278481</v>
       </c>
       <c r="E14">
-        <v>0.005210540587801769</v>
+        <v>0.01968575884322208</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4182,13 +4182,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>143.4935559109606</v>
+        <v>291.034971142405</v>
       </c>
       <c r="D15">
-        <v>143.4935559109606</v>
+        <v>291.034971142405</v>
       </c>
       <c r="E15">
-        <v>0.01511253880052245</v>
+        <v>0.03065139243205951</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4199,13 +4199,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>33.2838879739915</v>
+        <v>37.6194645</v>
       </c>
       <c r="D16">
-        <v>33.2838879739915</v>
+        <v>37.6194645</v>
       </c>
       <c r="E16">
-        <v>0.001733445548356414</v>
+        <v>0.001959245065361179</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4216,13 +4216,13 @@
         <v>107</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>4.179940500000001</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>4.179940500000001</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0003259467014971928</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4250,13 +4250,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>22.62319518593011</v>
+        <v>21.16425569620253</v>
       </c>
       <c r="D19">
-        <v>22.62319518593011</v>
+        <v>21.16425569620253</v>
       </c>
       <c r="E19">
-        <v>0.00371603074670337</v>
+        <v>0.003476388911991217</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4267,13 +4267,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>99.58797730540151</v>
+        <v>26.07877445286752</v>
       </c>
       <c r="D20">
-        <v>99.58797730540151</v>
+        <v>26.07877445286752</v>
       </c>
       <c r="E20">
-        <v>0.004056041107213029</v>
+        <v>0.001062142078477886</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4284,13 +4284,13 @@
         <v>111</v>
       </c>
       <c r="C21">
-        <v>39.15539255355772</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>39.15539255355772</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.004494420632869344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4301,13 +4301,13 @@
         <v>112</v>
       </c>
       <c r="C22">
-        <v>59.89500851724075</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>59.89500851724075</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.004093146211798042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4318,13 +4318,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>24.03851609117872</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>24.03851609117872</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.005305344535682791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4335,13 +4335,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>139.3379418645366</v>
+        <v>32.33721901582279</v>
       </c>
       <c r="D24">
-        <v>139.3379418645366</v>
+        <v>32.33721901582279</v>
       </c>
       <c r="E24">
-        <v>0.0106178420989512</v>
+        <v>0.002464163607088531</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4352,13 +4352,13 @@
         <v>115</v>
       </c>
       <c r="C25">
-        <v>35.40722087886996</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>35.40722087886996</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.004178336190567613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4369,13 +4369,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>55.6551621733533</v>
+        <v>14.57423336358817</v>
       </c>
       <c r="D26">
-        <v>55.6551621733533</v>
+        <v>14.57423336358817</v>
       </c>
       <c r="E26">
-        <v>0.004763365471872073</v>
+        <v>0.001247366771960645</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4386,13 +4386,13 @@
         <v>117</v>
       </c>
       <c r="C27">
-        <v>31.69813575827574</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>31.69813575827574</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0.004519266575174756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4403,13 +4403,13 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>29.60521152490607</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>29.60521152490607</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0.005486510660657167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4420,13 +4420,13 @@
         <v>119</v>
       </c>
       <c r="C29">
-        <v>300.1797228675981</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>300.1797228675981</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.09079846426727103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4437,13 +4437,13 @@
         <v>120</v>
       </c>
       <c r="C30">
-        <v>57.11619254234117</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>57.11619254234117</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.002507405616679449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4454,13 +4454,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>63.55541956829724</v>
+        <v>118.6080162974684</v>
       </c>
       <c r="D31">
-        <v>63.55541956829724</v>
+        <v>118.6080162974684</v>
       </c>
       <c r="E31">
-        <v>0.01202562338094555</v>
+        <v>0.02244238718968181</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4488,13 +4488,13 @@
         <v>123</v>
       </c>
       <c r="C33">
-        <v>19.28764563984567</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>19.28764563984567</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.0007408921614814148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4505,13 +4505,13 @@
         <v>124</v>
       </c>
       <c r="C34">
-        <v>42.20135488714521</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>42.20135488714521</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.003849434907155452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4522,13 +4522,13 @@
         <v>125</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>96.47373221518988</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>96.47373221518988</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.002304235507193797</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4760,13 +4760,13 @@
         <v>139</v>
       </c>
       <c r="C49">
-        <v>21.05494029805374</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>21.05494029805374</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.01111078643696767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4845,13 +4845,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>48.88739435544867</v>
+        <v>91.88814348101265</v>
       </c>
       <c r="D54">
-        <v>48.88739435544867</v>
+        <v>91.88814348101265</v>
       </c>
       <c r="E54">
-        <v>0.002059717478636978</v>
+        <v>0.003871419569454925</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4862,13 +4862,13 @@
         <v>145</v>
       </c>
       <c r="C55">
-        <v>21.55101321391312</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>21.55101321391312</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0.003069507650464766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4879,13 +4879,13 @@
         <v>146</v>
       </c>
       <c r="C56">
-        <v>26.09888211914895</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>26.09888211914895</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0.002190238512852379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4896,13 +4896,13 @@
         <v>147</v>
       </c>
       <c r="C57">
-        <v>22.65173969320042</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>22.65173969320042</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>0.003431561838085202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4913,13 +4913,13 @@
         <v>148</v>
       </c>
       <c r="C58">
-        <v>14.11123107565323</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>14.11123107565323</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0.003104781314775189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4930,13 +4930,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>30.39530215989202</v>
+        <v>11.90489382911392</v>
       </c>
       <c r="D59">
-        <v>30.39530215989202</v>
+        <v>11.90489382911392</v>
       </c>
       <c r="E59">
-        <v>0.002040090083891001</v>
+        <v>0.0007990397898593143</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4947,13 +4947,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>53.51333918189278</v>
+        <v>107.1440444620253</v>
       </c>
       <c r="D60">
-        <v>53.51333918189278</v>
+        <v>107.1440444620253</v>
       </c>
       <c r="E60">
-        <v>0.002379322359250046</v>
+        <v>0.00476386307687632</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4964,13 +4964,13 @@
         <v>151</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>8.112964683544304</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>8.112964683544304</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.0007051685948321864</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -5100,13 +5100,13 @@
         <v>159</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>3.262822753164556</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>3.262822753164556</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.0003362001806454978</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -5134,13 +5134,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>36.07787657394729</v>
+        <v>78.83685246835444</v>
       </c>
       <c r="D71">
-        <v>36.07787657394729</v>
+        <v>78.83685246835444</v>
       </c>
       <c r="E71">
-        <v>0.002471087436571733</v>
+        <v>0.005399784415640715</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5185,13 +5185,13 @@
         <v>164</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>56.70256838607595</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>56.70256838607595</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.002184312507649599</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5270,13 +5270,13 @@
         <v>169</v>
       </c>
       <c r="C79">
-        <v>62.63764438346929</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>62.63764438346929</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0.002577680838825896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -5287,13 +5287,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>49.92664532729352</v>
+        <v>46.82591572784809</v>
       </c>
       <c r="D80">
-        <v>49.92664532729352</v>
+        <v>46.82591572784809</v>
       </c>
       <c r="E80">
-        <v>0.004895729096616348</v>
+        <v>0.004591676380451862</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5304,13 +5304,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>104.3066017292758</v>
+        <v>29.79750833227848</v>
       </c>
       <c r="D81">
-        <v>104.3066017292758</v>
+        <v>29.79750833227848</v>
       </c>
       <c r="E81">
-        <v>0.01030392193314983</v>
+        <v>0.002943545226936529</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -5321,13 +5321,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>44.48699657137475</v>
+        <v>134.0887874952532</v>
       </c>
       <c r="D82">
-        <v>44.48699657137475</v>
+        <v>134.0887874952532</v>
       </c>
       <c r="E82">
-        <v>0.004656861359926175</v>
+        <v>0.01403630142313966</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -5338,13 +5338,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>28.25398105411891</v>
+        <v>134.0887874952532</v>
       </c>
       <c r="D83">
-        <v>28.25398105411891</v>
+        <v>134.0887874952532</v>
       </c>
       <c r="E83">
-        <v>0.007796352388001907</v>
+        <v>0.03700021730001467</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5355,13 +5355,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>39.46756054493127</v>
+        <v>128.396484556962</v>
       </c>
       <c r="D84">
-        <v>39.46756054493127</v>
+        <v>128.396484556962</v>
       </c>
       <c r="E84">
-        <v>0.002579579120583743</v>
+        <v>0.008391927095226275</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -5372,13 +5372,13 @@
         <v>175</v>
       </c>
       <c r="C85">
-        <v>44.81886145159304</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>44.81886145159304</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>0.002658453137884397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5389,13 +5389,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>39.4085892661138</v>
+        <v>192.594726835443</v>
       </c>
       <c r="D86">
-        <v>39.4085892661138</v>
+        <v>192.594726835443</v>
       </c>
       <c r="E86">
-        <v>0.006582359990999466</v>
+        <v>0.0321688202497817</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5406,13 +5406,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>34.73592150803439</v>
+        <v>63.22821389240506</v>
       </c>
       <c r="D87">
-        <v>34.73592150803439</v>
+        <v>63.22821389240506</v>
       </c>
       <c r="E87">
-        <v>0.003486142262950059</v>
+        <v>0.006345665786070359</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -5423,13 +5423,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>155.3152587169874</v>
+        <v>63.22821389240506</v>
       </c>
       <c r="D88">
-        <v>155.3152587169874</v>
+        <v>63.22821389240506</v>
       </c>
       <c r="E88">
-        <v>0.04054170157060491</v>
+        <v>0.01650436280146308</v>
       </c>
     </row>
   </sheetData>
@@ -5470,13 +5470,13 @@
         <v>92</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.980632677215191</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>8.941898031645572</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.000960874492977173</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5487,13 +5487,13 @@
         <v>93</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2.980632677215191</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>8.941898031645572</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0007534460761413525</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5504,13 +5504,13 @@
         <v>94</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>17.88379606329114</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>53.65138818987341</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.002668028653333006</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5521,13 +5521,13 @@
         <v>95</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.980632677215191</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>8.941898031645572</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0006276337496768142</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5538,13 +5538,13 @@
         <v>96</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2.980632677215191</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>8.941898031645572</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0007893624674828365</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5572,13 +5572,13 @@
         <v>98</v>
       </c>
       <c r="C8">
-        <v>9.580941911061908</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>28.74282573318573</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0004989034529817698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5606,13 +5606,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>50.75680206895612</v>
+        <v>142.329619556962</v>
       </c>
       <c r="D10">
-        <v>152.2704062068684</v>
+        <v>426.9888586708861</v>
       </c>
       <c r="E10">
-        <v>0.002277417421319878</v>
+        <v>0.006386217057341142</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5623,13 +5623,13 @@
         <v>101</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>14.85907118670886</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>44.57721356012659</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.004887852364048968</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5640,13 +5640,13 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>10.93458880830235</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>32.80376642490704</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.001450210717281479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5657,13 +5657,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>125.7724442285776</v>
+        <v>95.23915063291139</v>
       </c>
       <c r="D13">
-        <v>377.3173326857328</v>
+        <v>285.7174518987342</v>
       </c>
       <c r="E13">
-        <v>0.04542161221689332</v>
+        <v>0.03439478173814062</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5674,13 +5674,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>20.0267127492161</v>
+        <v>75.66221411392405</v>
       </c>
       <c r="D14">
-        <v>60.08013824764829</v>
+        <v>226.9866423417722</v>
       </c>
       <c r="E14">
-        <v>0.002605270293900884</v>
+        <v>0.009842879421611038</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5691,13 +5691,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>71.74677795548031</v>
+        <v>145.5174855712025</v>
       </c>
       <c r="D15">
-        <v>215.2403338664409</v>
+        <v>436.5524567136075</v>
       </c>
       <c r="E15">
-        <v>0.007556269400261223</v>
+        <v>0.01532569621602975</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5708,13 +5708,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>16.64194398699575</v>
+        <v>18.80973225</v>
       </c>
       <c r="D16">
-        <v>49.92583196098725</v>
+        <v>56.42919675</v>
       </c>
       <c r="E16">
-        <v>0.000866722774178207</v>
+        <v>0.0009796225326805896</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5725,13 +5725,13 @@
         <v>107</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2.08997025</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>6.269910750000001</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0001629733507485964</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5759,13 +5759,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>11.31159759296506</v>
+        <v>10.58212784810127</v>
       </c>
       <c r="D19">
-        <v>33.93479277889517</v>
+        <v>31.7463835443038</v>
       </c>
       <c r="E19">
-        <v>0.001858015373351685</v>
+        <v>0.001738194455995609</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5776,13 +5776,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>49.79398865270075</v>
+        <v>13.03938722643376</v>
       </c>
       <c r="D20">
-        <v>149.3819659581023</v>
+        <v>39.11816167930129</v>
       </c>
       <c r="E20">
-        <v>0.002028020553606515</v>
+        <v>0.0005310710392389428</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5793,13 +5793,13 @@
         <v>111</v>
       </c>
       <c r="C21">
-        <v>19.57769627677886</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>58.73308883033658</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.002247210316434672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5810,13 +5810,13 @@
         <v>112</v>
       </c>
       <c r="C22">
-        <v>29.94750425862038</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>89.84251277586114</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.002046573105899021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5827,13 +5827,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>12.01925804558936</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>36.05777413676809</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.002652672267841395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5844,13 +5844,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>69.66897093226828</v>
+        <v>16.16860950791139</v>
       </c>
       <c r="D24">
-        <v>209.0069127968048</v>
+        <v>48.50582852373418</v>
       </c>
       <c r="E24">
-        <v>0.005308921049475598</v>
+        <v>0.001232081803544265</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5861,13 +5861,13 @@
         <v>115</v>
       </c>
       <c r="C25">
-        <v>17.70361043943498</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>53.11083131830493</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.002089168095283807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5878,13 +5878,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>27.82758108667665</v>
+        <v>7.287116681794087</v>
       </c>
       <c r="D26">
-        <v>83.48274326002995</v>
+        <v>21.86135004538226</v>
       </c>
       <c r="E26">
-        <v>0.002381682735936036</v>
+        <v>0.0006236833859803224</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5895,13 +5895,13 @@
         <v>117</v>
       </c>
       <c r="C27">
-        <v>15.84906787913787</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>47.54720363741361</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0.002259633287587378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5912,13 +5912,13 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>14.80260576245304</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>44.40781728735911</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0.002743255330328583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5929,13 +5929,13 @@
         <v>119</v>
       </c>
       <c r="C29">
-        <v>150.089861433799</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>450.2695843013971</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.04539923213363552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5946,13 +5946,13 @@
         <v>120</v>
       </c>
       <c r="C30">
-        <v>28.55809627117059</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>85.67428881351177</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.001253702808339725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5963,13 +5963,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>31.77770978414862</v>
+        <v>59.30400814873418</v>
       </c>
       <c r="D31">
-        <v>95.33312935244587</v>
+        <v>177.9120244462025</v>
       </c>
       <c r="E31">
-        <v>0.006012811690472776</v>
+        <v>0.0112211935948409</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5997,13 +5997,13 @@
         <v>123</v>
       </c>
       <c r="C33">
-        <v>9.643822819922836</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>28.93146845976851</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.0003704460807407074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6014,13 +6014,13 @@
         <v>124</v>
       </c>
       <c r="C34">
-        <v>21.10067744357261</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>63.30203233071782</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.001924717453577726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6031,13 +6031,13 @@
         <v>125</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>48.23686610759494</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>144.7105983227848</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.001152117753596898</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6269,13 +6269,13 @@
         <v>139</v>
       </c>
       <c r="C49">
-        <v>10.52747014902687</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>31.58241044708061</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.005555393218483837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6354,13 +6354,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>24.44369717772434</v>
+        <v>45.94407174050632</v>
       </c>
       <c r="D54">
-        <v>73.33109153317301</v>
+        <v>137.832215221519</v>
       </c>
       <c r="E54">
-        <v>0.001029858739318489</v>
+        <v>0.001935709784727463</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -6371,13 +6371,13 @@
         <v>145</v>
       </c>
       <c r="C55">
-        <v>10.77550660695656</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>32.32651982086968</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0.001534753825232383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -6388,13 +6388,13 @@
         <v>146</v>
       </c>
       <c r="C56">
-        <v>13.04944105957447</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>39.14832317872342</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0.00109511925642619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -6405,13 +6405,13 @@
         <v>147</v>
       </c>
       <c r="C57">
-        <v>11.32586984660021</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>33.97760953980062</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>0.001715780919042601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -6422,13 +6422,13 @@
         <v>148</v>
       </c>
       <c r="C58">
-        <v>7.055615537826617</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>21.16684661347985</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0.001552390657387595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -6439,13 +6439,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>15.19765107994601</v>
+        <v>5.952446914556962</v>
       </c>
       <c r="D59">
-        <v>45.59295323983802</v>
+        <v>17.85734074367089</v>
       </c>
       <c r="E59">
-        <v>0.0010200450419455</v>
+        <v>0.0003995198949296572</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -6456,13 +6456,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>26.75666959094639</v>
+        <v>53.57202223101265</v>
       </c>
       <c r="D60">
-        <v>80.27000877283918</v>
+        <v>160.716066693038</v>
       </c>
       <c r="E60">
-        <v>0.001189661179625023</v>
+        <v>0.00238193153843816</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -6473,13 +6473,13 @@
         <v>151</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>4.056482341772152</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>12.16944702531645</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.0003525842974160932</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -6609,13 +6609,13 @@
         <v>159</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1.631411376582278</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>4.894234129746835</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.0001681000903227489</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -6643,13 +6643,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>18.03893828697365</v>
+        <v>39.41842623417722</v>
       </c>
       <c r="D71">
-        <v>54.11681486092094</v>
+        <v>118.2552787025317</v>
       </c>
       <c r="E71">
-        <v>0.001235543718285866</v>
+        <v>0.002699892207820357</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -6694,13 +6694,13 @@
         <v>164</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>28.35128419303797</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>85.05385257911392</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.0010921562538248</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -6779,13 +6779,13 @@
         <v>169</v>
       </c>
       <c r="C79">
-        <v>31.31882219173464</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>93.95646657520393</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0.001288840419412948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -6796,13 +6796,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>24.96332266364676</v>
+        <v>23.41295786392405</v>
       </c>
       <c r="D80">
-        <v>74.88996799094028</v>
+        <v>70.23887359177213</v>
       </c>
       <c r="E80">
-        <v>0.002447864548308174</v>
+        <v>0.002295838190225931</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -6813,13 +6813,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>52.15330086463788</v>
+        <v>14.89875416613924</v>
       </c>
       <c r="D81">
-        <v>156.4599025939136</v>
+        <v>44.69626249841772</v>
       </c>
       <c r="E81">
-        <v>0.005151960966574916</v>
+        <v>0.001471772613468265</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -6830,13 +6830,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>22.24349828568737</v>
+        <v>67.04439374762659</v>
       </c>
       <c r="D82">
-        <v>66.73049485706213</v>
+        <v>201.1331812428797</v>
       </c>
       <c r="E82">
-        <v>0.002328430679963087</v>
+        <v>0.00701815071156983</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -6847,13 +6847,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>14.12699052705945</v>
+        <v>67.04439374762659</v>
       </c>
       <c r="D83">
-        <v>42.38097158117836</v>
+        <v>201.1331812428797</v>
       </c>
       <c r="E83">
-        <v>0.003898176194000953</v>
+        <v>0.01850010865000734</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -6864,13 +6864,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>19.73378027246564</v>
+        <v>64.198242278481</v>
       </c>
       <c r="D84">
-        <v>59.20134081739691</v>
+        <v>192.594726835443</v>
       </c>
       <c r="E84">
-        <v>0.001289789560291872</v>
+        <v>0.004195963547613138</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -6881,13 +6881,13 @@
         <v>175</v>
       </c>
       <c r="C85">
-        <v>22.40943072579652</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>67.22829217738956</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>0.001329226568942198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -6898,13 +6898,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>19.7042946330569</v>
+        <v>96.29736341772151</v>
       </c>
       <c r="D86">
-        <v>59.1128838991707</v>
+        <v>288.8920902531646</v>
       </c>
       <c r="E86">
-        <v>0.003291179995499733</v>
+        <v>0.01608441012489085</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -6915,13 +6915,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>17.36796075401719</v>
+        <v>31.61410694620253</v>
       </c>
       <c r="D87">
-        <v>52.10388226205158</v>
+        <v>94.84232083860759</v>
       </c>
       <c r="E87">
-        <v>0.00174307113147503</v>
+        <v>0.00317283289303518</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -6932,13 +6932,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>77.65762935849371</v>
+        <v>31.61410694620253</v>
       </c>
       <c r="D88">
-        <v>232.9728880754811</v>
+        <v>94.84232083860759</v>
       </c>
       <c r="E88">
-        <v>0.02027085078530245</v>
+        <v>0.008252181400731539</v>
       </c>
     </row>
   </sheetData>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>11.92253070886076</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>11.92253070886076</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>71.53518425316454</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7033,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>11.92253070886076</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7050,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>11.92253070886076</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>38.32376764424763</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>203.0272082758245</v>
+        <v>569.3184782278481</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>59.43628474683545</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -7152,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>43.73835523320939</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -7169,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>503.0897769143104</v>
+        <v>380.9566025316456</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -7186,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>80.1068509968644</v>
+        <v>302.6488564556962</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>286.9871118219212</v>
+        <v>582.0699422848101</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>66.56777594798301</v>
+        <v>75.238929</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>8.359881000000001</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>45.24639037186023</v>
+        <v>42.32851139240506</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>199.175954610803</v>
+        <v>52.15754890573505</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -7305,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>78.31078510711545</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>119.7900170344815</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -7339,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>48.07703218235745</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -7356,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>278.6758837290731</v>
+        <v>64.67443803164558</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>70.81444175773991</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -7390,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>111.3103243467066</v>
+        <v>29.14846672717635</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>63.39627151655148</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>59.21042304981215</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -7441,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>600.3594457351961</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>114.2323850846823</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>127.1108391365945</v>
+        <v>237.2160325949367</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>38.57529127969134</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>84.40270977429043</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -7543,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>192.9474644303798</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -7781,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>42.10988059610748</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -7866,7 +7866,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>97.77478871089734</v>
+        <v>183.7762869620253</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>43.10202642782625</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>52.1977642382979</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>45.30347938640083</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>28.22246215130647</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>60.79060431978404</v>
+        <v>23.80978765822785</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>107.0266783637856</v>
+        <v>214.2880889240506</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>16.22592936708861</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>6.525645506329113</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>72.15575314789459</v>
+        <v>157.6737049367089</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -8206,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>113.4051367721519</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>125.2752887669386</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -8308,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>99.85329065458704</v>
+        <v>93.65183145569618</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>208.6132034585515</v>
+        <v>59.59501666455697</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>88.97399314274949</v>
+        <v>268.1775749905063</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -8359,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>56.50796210823782</v>
+        <v>268.1775749905063</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>78.93512108986255</v>
+        <v>256.792969113924</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>89.63772290318609</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>78.8171785322276</v>
+        <v>385.1894536708861</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>69.47184301606877</v>
+        <v>126.4564277848101</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -8444,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>310.6305174339748</v>
+        <v>126.4564277848101</v>
       </c>
       <c r="E88">
         <v>0</v>
